--- a/data/trans_bre/P18_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P18_1_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,66</t>
+          <t>-6,43</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18,02</t>
+          <t>-27,1</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>25,63</t>
+          <t>-39,05</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20,2</t>
+          <t>-34,71</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>25,39%</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>47,22%</t>
+          <t>-16,95%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>74,8%</t>
+          <t>-43,09%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>58,21%</t>
+          <t>-55,77%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-53,43%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4,89%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 26,26</t>
+          <t>-28,38; 17,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 34,24</t>
+          <t>-52,92; -5,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,22; 42,44</t>
+          <t>-60,46; -17,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 36,96</t>
+          <t>-59,94; -11,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 62,31</t>
+          <t>-24,84; 37,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 125,58</t>
+          <t>-57,81; 69,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>26,62; 171,57</t>
+          <t>-68,94; -8,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 142,5</t>
+          <t>-76,52; -31,85</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-74,66; -21,99</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-42,36; 208,86</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>26,98</t>
+          <t>-31,83</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>23,9</t>
+          <t>-25,83</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>17,92</t>
+          <t>-24,26</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,81</t>
+          <t>-19,84</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>74,73%</t>
+          <t>-14,2</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>116,8%</t>
+          <t>-47,89%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>55,8%</t>
+          <t>-33,74%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>61,34%</t>
+          <t>-34,3%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-29,39%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-21,93%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,72; 35,22</t>
+          <t>-42,48; -21,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,78; 30,99</t>
+          <t>-35,67; -15,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,97; 27,09</t>
+          <t>-35,27; -14,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,92; 27,53</t>
+          <t>-30,76; -7,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>43,82; 117,61</t>
+          <t>-25,46; 0,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>61,99; 185,62</t>
+          <t>-59,97; -34,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,9; 101,3</t>
+          <t>-45,01; -22,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>25,16; 112,89</t>
+          <t>-46,82; -21,23</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-42,13; -12,1</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-35,86; 0,16</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>35,42</t>
+          <t>-28,67</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>22,23</t>
+          <t>-17,19</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,43</t>
+          <t>-10,1</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,52</t>
+          <t>-13,05</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>113,35%</t>
+          <t>-8,07</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>124,73%</t>
+          <t>-44,75%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>44,28%</t>
+          <t>-21,92%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>65,67%</t>
+          <t>-14,79%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-18,81%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-11,95%</t>
         </is>
       </c>
     </row>
@@ -868,49 +934,59 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>26,05; 44,27</t>
+          <t>-39,53; -17,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,65; 31,11</t>
+          <t>-27,62; -6,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,74; 23,06</t>
+          <t>-20,83; 1,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,99; 27,8</t>
+          <t>-24,12; -0,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>72,5; 173,08</t>
+          <t>-19,77; 4,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>61,62; 230,57</t>
+          <t>-57,81; -30,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,14; 89,42</t>
+          <t>-33,64; -8,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>25,99; 118,57</t>
+          <t>-28,81; 2,66</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-33,03; -1,84</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-27,21; 6,3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>27,46</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22,3</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,83</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19,12</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>74,65%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>98,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>55,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>62,58%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,52 +1054,190 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,43; 33,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,91; 27,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,18; 23,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,35; 25,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>52,23; 98,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>57,32; 137,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>32,94; 84,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>36,77; 92,8</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-27,1</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-22,26</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-20,59</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-19,27</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-9,38</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-43,97%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-29,57%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-29,52%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-28,43%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-15,26%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-34,49; -18,67</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-29,48; -15,18</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-27,66; -11,89</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-26,54; -10,59</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-17,9; 3,64</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-52,58; -33,15</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-37,45; -21,39</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-37,82; -18,33</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-37,2; -16,88</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-26,93; 5,42</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P18_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P18_1_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-6,43</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-27,1</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-39,05</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-34,71</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1,95</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-16,95%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-43,09%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-55,77%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-53,43%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>4,89%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-6.431997194466899</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-22.49471436431768</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-39.11690150876285</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-35.33975727162073</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-1.715020551692398</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.1694692689017729</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.3744389079555075</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.5579459603734647</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.5474449133886189</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.04252741710539092</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-28,38; 17,13</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-52,92; -5,05</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-60,46; -17,98</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-59,94; -11,37</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-24,84; 37,72</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-57,81; 69,82</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-68,94; -8,65</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-76,52; -31,85</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-74,66; -21,99</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-42,36; 208,86</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-28.37918940837105</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-46.50769546225577</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-59.09351274264484</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-59.53409158860322</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-28.670864046414</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.5780780481043702</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.6395836239893532</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.7551993530996047</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.7668784110249466</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.4840246291757903</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>17.13267780615331</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-0.2476059957402009</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-17.46955197327324</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>-12.52158177876152</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>34.28737715671198</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.6982093348563224</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.004353792041155716</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>-0.3263062383429372</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>-0.2396775546814496</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>1.849747432944352</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-31,83</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-25,83</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-24,26</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-19,84</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-14,2</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-47,89%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-33,74%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-34,3%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-29,39%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-21,93%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-42,48; -21,0</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-35,67; -15,67</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-35,27; -14,24</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-30,76; -7,7</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-25,46; 0,19</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-59,97; -34,69</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-45,01; -22,3</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-46,82; -21,23</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-42,13; -12,1</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-35,86; 0,16</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-31.83107912687741</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-26.53908600356458</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-23.30389165289279</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-19.69083874700931</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-14.40068190247159</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.4789472794618141</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.3412943225107731</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.3329704418989023</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.2941547599203076</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.2203831214806179</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-28,67</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-17,19</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-10,1</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-13,05</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-8,07</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-44,75%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-21,92%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-14,79%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-18,81%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-11,95%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-42.483381459811</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-37.00062953240195</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-34.67293852040464</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-31.36485340711868</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-25.86105151991705</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.5997426508561355</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.4524304947258298</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.4574772343993708</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.4241625940039244</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.3621824951147891</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-39,53; -17,55</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-27,62; -6,34</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-20,83; 1,63</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-24,12; -0,92</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-19,77; 4,12</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-57,81; -30,6</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-33,64; -8,86</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-28,81; 2,66</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-33,03; -1,84</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-27,21; 6,3</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-21.00452532036679</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-16.65409365179071</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>-12.66263823114364</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>-7.078675112882229</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.3648072898856587</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>-0.3468817210511722</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>-0.2265768922732813</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>-0.1949378622508649</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>-0.1209236113840656</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>-0.0004721668063341533</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,252 +879,247 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-28.66538743693672</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-17.90296207943985</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-9.79554937110041</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-12.20515027934964</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-7.404043983080067</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.4474995392381035</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.2276819275330031</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.1453676143677015</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.1774322646531245</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.1109177649321133</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-39.52955066414516</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-28.81062424627254</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-21.36061339263013</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-23.6007942299895</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-19.11915428087149</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.5780671829262155</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.3505086913321505</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.2904991070364747</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.3212606653671343</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.2631830207927262</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-17.55043475646722</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-5.781513233125537</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>2.37773898535228</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-0.3996837211185152</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>4.542365353062934</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>-0.3059586520490287</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>-0.08296189855676736</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.0398109535382322</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>-0.008461417697975215</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.07639698002836832</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-27,1</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-22,26</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-20,59</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-19,27</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-9,38</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-43,97%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-29,57%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-29,52%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-28,43%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-15,26%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-34,49; -18,67</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-29,48; -15,18</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-27,66; -11,89</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-26,54; -10,59</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-17,9; 3,64</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-52,58; -33,15</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-37,45; -21,39</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-37,82; -18,33</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-37,2; -16,88</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-26,93; 5,42</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-27.09738083130905</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-22.39497633790136</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-20.22203522607566</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-19.18654969661138</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-10.15732759131006</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.4396925417684444</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.2961124224885657</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.2928760783995045</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.2853048110675568</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.1646597880503443</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-34.49095721241153</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-29.86857764711403</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-27.48591169005874</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-26.22367136508392</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-18.67943911372813</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.525844803305255</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.3747085414590002</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.3844073906151057</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.3708922532612902</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.2802996495813451</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-18.66913685388196</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-15.26803041631376</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-11.57444137081566</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>-9.932698551658518</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>2.672518856814013</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>-0.3314785682697955</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>-0.2113205929905204</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>-0.1818125778183161</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>-0.1669071549450068</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.03140044255710837</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
